--- a/Excel/MusicConfig.xlsx
+++ b/Excel/MusicConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>beatThreshold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11E-2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -178,7 +174,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -551,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -568,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="4">
         <v>100</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>11</v>
+      <c r="H6" s="6">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
